--- a/dist/assets/images/propertygaga/purchase-voucher-all.xlsx
+++ b/dist/assets/images/propertygaga/purchase-voucher-all.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloise/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F3C287-954C-ED40-8ED9-C81256D22C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Payment Voucher" sheetId="1" r:id="rId1"/>
+    <sheet name="Payment Voucher" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Perbadanan Pengurusan Relau Vista Apartment</t>
   </si>
@@ -30,7 +22,6 @@
         <sz val="13"/>
         <color indexed="9"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Block 2-G-01, Lebuh Relau 6, 11900 Bayan Lepas, Penang, Malaysia
 </t>
@@ -40,17 +31,15 @@
         <sz val="13"/>
         <color indexed="9"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Tel/Fax : 04-6425118 Email: </t>
     </r>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="13"/>
-        <color indexed="13"/>
+        <color indexed="14"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>mcrelauvista@gmail.com</t>
     </r>
@@ -150,72 +139,122 @@
   </si>
   <si>
     <t>7868468</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Prepare by:
+Site Admin
+ + +—————————————————- +Name: +Date:</t>
+  </si>
+  <si>
+    <t>Checked and Confirmed by:
+Building Supervisor/Manager
+ + +—————————————————- +Name: +Date:</t>
+  </si>
+  <si>
+    <t>Confirmed by:
+Account Department
+ + +—————————————————- +Name: +Date:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="Superclarendon"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="15"/>
       <color indexed="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color indexed="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="13"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
-      <color indexed="12"/>
+      <color indexed="13"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="15"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Avenir Next"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,42 +269,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="19"/>
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="20"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="21"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="22"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -274,28 +307,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -318,13 +363,209 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="medium">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="medium">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top>
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top>
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="12"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -334,28 +575,18 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -364,275 +595,197 @@
         <color indexed="12"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="medium">
-        <color indexed="12"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="medium">
-        <color indexed="12"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="60">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,95 +794,43 @@
   <dxfs count="1">
     <dxf>
       <font>
-        <color rgb="FFD23600"/>
+        <color rgb="ffd23600"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF375719"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FF444344"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFEFEFE"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF415BAA"/>
-      <rgbColor rgb="FF090547"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFEBE8E3"/>
-      <rgbColor rgb="FFD23600"/>
-      <rgbColor rgb="FFEEEEEE"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff375719"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff444344"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="fffefefe"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ff415baa"/>
+      <rgbColor rgb="ffc00000"/>
+      <rgbColor rgb="ff090547"/>
+      <rgbColor rgb="ffebe8e3"/>
+      <rgbColor rgb="ffd23600"/>
+      <rgbColor rgb="fffde0d7"/>
+      <rgbColor rgb="ffeeeeee"/>
+      <rgbColor rgb="fffcc1b0"/>
     </indexedColors>
-    <mruColors>
-      <color rgb="FFEEEEEE"/>
-    </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="06_GradeBook">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06_GradeBook">
   <a:themeElements>
     <a:clrScheme name="06_GradeBook">
       <a:dk1>
@@ -931,7 +1032,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -950,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,15 +1302,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1226,7 +1321,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1245,7 +1340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1392,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1418,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,7 +1470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,7 +1496,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,7 +1522,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,7 +1548,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1479,7 +1574,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1492,15 +1587,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1514,7 +1603,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1533,7 +1622,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1563,7 +1652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1589,7 +1678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1615,7 +1704,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1641,7 +1730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1667,7 +1756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1693,7 +1782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1719,7 +1808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1745,7 +1834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1771,7 +1860,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1784,292 +1873,357 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.6640625" defaultRowHeight="21.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="21.6667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="14.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8516" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" style="1" customWidth="1"/>
-    <col min="11" max="256" width="21.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.1719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1719" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1719" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1719" style="1" customWidth="1"/>
+    <col min="11" max="256" width="21.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="9" customHeight="1">
+    <row r="1" ht="9" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
+      <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
-      <c r="A2" s="22" t="s">
+    <row r="2" ht="9" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" t="s" s="12">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="31" customHeight="1">
-      <c r="A3" s="22" t="s">
+    <row r="4" ht="31" customHeight="1">
+      <c r="A4" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="29" t="s">
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="33"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="13.75" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
+    <row r="6" ht="13.75" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="22" t="s">
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="33"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="11"/>
+    <row r="8" ht="17.5" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="25"/>
     </row>
-    <row r="8" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A8" s="12" t="s">
+    <row r="9" ht="36.75" customHeight="1">
+      <c r="A9" t="s" s="26">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" t="s" s="27">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" t="s" s="27">
         <v>6</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" t="s" s="26">
         <v>7</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E9" t="s" s="28">
         <v>8</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F9" t="s" s="26">
         <v>9</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G9" t="s" s="27">
         <v>10</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H9" t="s" s="27">
         <v>11</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I9" t="s" s="27">
         <v>12</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J9" t="s" s="29">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="25" customHeight="1">
-      <c r="A9" s="15" t="s">
+    <row r="10" ht="25" customHeight="1">
+      <c r="A10" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" t="s" s="31">
         <v>15</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" t="s" s="31">
         <v>16</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D10" t="s" s="32">
         <v>17</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E10" s="33">
         <v>2220</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F10" t="s" s="32">
         <v>18</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G10" t="s" s="31">
         <v>19</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H10" t="s" s="31">
         <v>20</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I10" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J10" t="s" s="34">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25" customHeight="1">
-      <c r="A10" s="19" t="s">
+    <row r="11" ht="25" customHeight="1">
+      <c r="A11" t="s" s="35">
         <v>23</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" t="s" s="36">
         <v>24</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" t="s" s="36">
         <v>25</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D11" t="s" s="36">
         <v>17</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E11" s="37">
         <v>255</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F11" t="s" s="36">
         <v>26</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G11" t="s" s="36">
         <v>19</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H11" t="s" s="36">
         <v>27</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I11" t="s" s="36">
         <v>21</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J11" t="s" s="38">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25" customHeight="1">
-      <c r="A11" s="38" t="s">
+    <row r="12" ht="25" customHeight="1">
+      <c r="A12" t="s" s="39">
         <v>29</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B12" t="s" s="40">
         <v>30</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C12" t="s" s="40">
         <v>31</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D12" t="s" s="40">
         <v>17</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E12" s="41">
         <v>502</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F12" t="s" s="40">
         <v>32</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G12" t="s" s="40">
         <v>19</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H12" t="s" s="40">
         <v>33</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I12" t="s" s="40">
         <v>21</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J12" t="s" s="42">
         <v>22</v>
       </c>
+    </row>
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" ht="25" customHeight="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" t="s" s="49">
+        <v>34</v>
+      </c>
+      <c r="E14" s="50">
+        <f>SUM(A14:D14)+E10+E13+E11+E12</f>
+        <v>2977</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" ht="25" customHeight="1">
+      <c r="A15" t="s" s="52">
+        <v>35</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+    </row>
+    <row r="16" ht="111.2" customHeight="1">
+      <c r="A16" t="s" s="55">
+        <v>36</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" t="s" s="58">
+        <v>37</v>
+      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" t="s" s="58">
+        <v>38</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:J2"/>
+  <mergeCells count="11">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A5:J5"/>
   </mergeCells>
-  <conditionalFormatting sqref="A9:J11">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A10:J14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J11" xr:uid="{46675870-7B11-AF49-BE2D-D01D615BC7BE}">
-      <formula1>"Collected, Banked In, Returned, Cancelled"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.8" header="0.25" footer="0.25"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
